--- a/data/Reports Images.xlsx
+++ b/data/Reports Images.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29421"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29512"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF9F6425-5CFD-41AF-91B0-B8DAD1ACABE5}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7031A7F-C739-4472-B4DB-F6E43FEEE504}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="162">
   <si>
     <t>Year</t>
   </si>
@@ -159,6 +159,15 @@
     <t>Staff Affairs Building Area</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/sx4MGdHk/S46-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CMGBQkMw/S46-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/9Xg5VNQs/S46-3.jpg</t>
+  </si>
+  <si>
     <t>Courtyard opposite S17 &amp; E-Learning Building</t>
   </si>
   <si>
@@ -171,12 +180,24 @@
     <t>https://i.postimg.cc/Dz336h1G/S45-area3.jpg</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/PJXwkWyR/In-front-of-S45-7.jpg</t>
+  </si>
+  <si>
     <t>Student Parking – College of Law</t>
   </si>
   <si>
     <t>https://i.postimg.cc/2SJMcGYX/S39-parking-1.jpg</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/g0mc7Srn/Student-Parking-S39.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/3xgJn5rD/Student-Parking-S39-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/dV8t4PQC/Student-Parking-S39-7.jpg</t>
+  </si>
+  <si>
     <t>External Courtyard – College of Law</t>
   </si>
   <si>
@@ -255,24 +276,72 @@
     <t>Roman Amphitheater</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/zGK26xMV/Roman-Amphitheater-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0yDXFV3y/Roman-Amphitheater-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qM8ZZmSb/Roman-Amphitheater-3.jpg</t>
+  </si>
+  <si>
     <t>Western Gate Entrance</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/T1zTPyQ2/Western-Gate-Entrance.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/j2pRjWvx/Western-Gate-Entrance-4.jpg</t>
+  </si>
+  <si>
     <t>https://i.postimg.cc/j2Y9hSzj/Western-Gate.jpg</t>
   </si>
   <si>
     <t>Student Parking – Western Gate</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/MKpF9yWG/Student-Parking-Western-Gate-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/FsHBTj9H/Student-Parking-Western-Gate-5.jpg</t>
+  </si>
+  <si>
     <t>Behind Restaurants Complex S51</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/Xqwzwp4B/behind-S51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mkQ5QtBg/behind-S51-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/j2zFzLtw/behind-S51-3.jpg</t>
+  </si>
+  <si>
     <t>Behind Khanji Hall</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/Y0dtLY7q/Behind-Khanji-Hall-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qq1p6yTW/Behind-Khanji-Hall-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gjgGL8pW/Behind-Khanji-Hall-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/90LcwZ2V/Behind-Khanji-Hall-8.jpg</t>
+  </si>
+  <si>
     <t>Area behind the Track</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/QCjsRL4L/behind-the-track-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KjmFdXqx/behind-the-track-7.jpg</t>
+  </si>
+  <si>
     <t>Student Parking – Eastern Gate</t>
   </si>
   <si>
@@ -309,6 +378,27 @@
     <t>Buildings S40, S41, S50, S51</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/RhhFLZdc/S40.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/8cc5mz4t/S41-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/RFXhtH79/S41-10.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/yxZkKJKy/Behind_S51.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/BbKX383T/Behind_S51_3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/c1k64f1m/Behind-Khanji-Hall-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/90LcwZ2V/Behind_Khanji_Hall_8.jpg</t>
+  </si>
+  <si>
     <t>Behind University Swimming Pool (S38)</t>
   </si>
   <si>
@@ -321,32 +411,119 @@
     <t>In front of Building S45</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/1XmqZGMQ/In-front-of-S45.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/L591MtD7/In-front-of-S45-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/6qWvNrcM/In-front-of-S45-8.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/d3syK26N/In-front-of-S45-9.jpg</t>
+  </si>
+  <si>
     <t>From behind College of Arts to Deanship of Student Affairs</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/d1HqLGvx/From-behind-College-of-Arts.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zBtJVT5t/From-behind-College-of-Arts-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/SsTyJcq5/From-behind-College-of-Arts-3.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/4dLJmpZ2/From-behind-College-of-Arts-4.jpg</t>
+  </si>
+  <si>
     <t>Hill Area behind Main Road</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/65CW3zRf/Hill-Area-behind-Main-Road-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/qM2JRQn2/Hill-Area-behind-Main-Road-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/gk3zJ4RK/Hill-Area-behind-Main-Road-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/xjwjnBkG/Hill-Area-behind-Main-Road-7.jpg</t>
+  </si>
+  <si>
     <t>Main fence area near the main entrance gate</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/L6j9XvfB/Main-fence-3.jpg</t>
+  </si>
+  <si>
     <t>Open courtyard behind the main mosque</t>
   </si>
   <si>
+    <t>https://i.postimg.cc/QxjRRF3N/Open-courtyard-behind-the-main-mosque.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/7P3Fsgpb/Open-courtyard-behind-the-main-mosque2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/66rkjdD7/Open-courtyard-behind-the-main-mosque4.jpg</t>
+  </si>
+  <si>
     <t>Student rest areas of the College of Science and the College of Information Technology</t>
   </si>
   <si>
-    <t>Area behind the swimming pool (S38)</t>
+    <t>https://i.postimg.cc/xTrKCmCb/Student-rest-areas-S40-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/1RkRsbgG/Roman-Amphitheater.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/CM3MS9Zb/Roman-Amphitheater-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/G3W3d6BY/Roman-Amphitheater-7.jpg</t>
+  </si>
+  <si>
+    <t>Opposite the Student Affairs parking lot (S38)</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/DwP3YcRt/swimming-pool.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/0y01HCh0/Area-behind-S38-1.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/mgyW6S0x/Area-behind-S38-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/901x2Bqz/S38-6.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/C5Jv04fR/S38-11.jpg</t>
   </si>
   <si>
     <t>S20 Building</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/B6wD0HPy/S20-2.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/WzBkDVn2/S20-4.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wMyNTMDr/S20-5.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/tJKx1b5G/S20-6.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,13 +555,32 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -400,13 +596,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -419,6 +612,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -761,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -770,22 +990,22 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="44" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -816,7 +1036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="15">
       <c r="A2" s="1">
         <v>2024</v>
       </c>
@@ -826,16 +1046,16 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="2"/>
@@ -850,16 +1070,16 @@
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -873,36 +1093,36 @@
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:11" s="10" customFormat="1">
+      <c r="A5" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="11">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -916,19 +1136,19 @@
       <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -939,31 +1159,40 @@
       <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A8" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="11">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15">
@@ -973,17 +1202,20 @@
       <c r="B9" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>45</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15">
@@ -993,11 +1225,20 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>47</v>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
@@ -1007,23 +1248,23 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>53</v>
+      <c r="C11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15">
@@ -1033,20 +1274,20 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>58</v>
+      <c r="C12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15">
@@ -1056,40 +1297,40 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A14" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="11">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>67</v>
+      <c r="C14" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15">
@@ -1099,265 +1340,410 @@
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="15">
+      <c r="A16" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="C16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="15">
+      <c r="A17" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="C17" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A18" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="19">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="C18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="15">
+      <c r="A19" s="10">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="11">
         <v>18</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="C19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15">
       <c r="A20" s="1">
         <v>2024</v>
       </c>
       <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="C20" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A21" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="19">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B22" s="2">
+      <c r="C21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A22" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="19">
         <v>21</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
-      <c r="A23" s="1">
-        <v>2024</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="C22" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A23" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="19">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
+      <c r="C23" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15">
       <c r="A24" s="1">
         <v>2024</v>
       </c>
       <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="C24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15">
       <c r="A25" s="1">
         <v>2025</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="1">
+      <c r="C25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A26" s="18">
         <v>2025</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="19">
         <v>2</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="C26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15">
       <c r="A27" s="1">
         <v>2025</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="28.5">
+      <c r="C27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" ht="28.5">
       <c r="A28" s="1">
         <v>2025</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="C28" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15">
       <c r="A29" s="1">
         <v>2025</v>
       </c>
       <c r="B29" s="2">
         <v>5</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
+      <c r="C29" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="18" customFormat="1" ht="15">
+      <c r="A30" s="18">
         <v>2025</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="19">
         <v>6</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
+      <c r="C30" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="10" customFormat="1" ht="15">
+      <c r="A31" s="10">
         <v>2025</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="11">
         <v>7</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="28.5">
-      <c r="A32" s="1">
+      <c r="C31" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" ht="28.5">
+      <c r="A32" s="18">
         <v>2025</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="19">
         <v>8</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
+      <c r="C32" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1" ht="15">
+      <c r="A33" s="10">
         <v>2025</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <v>9</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="1">
         <v>2025</v>
       </c>
       <c r="B34" s="2">
         <v>10</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="1">
         <v>2025</v>
       </c>
@@ -1365,46 +1751,58 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:8">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:8">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:8">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:8">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:8">
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:8">
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:8">
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:8">
       <c r="B44" s="2"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:8">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:8">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:8">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:8">
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2">
@@ -1699,7 +2097,7 @@
     <hyperlink ref="E23" r:id="rId21" xr:uid="{92D04466-D9D5-4944-AF49-8489B55B7FF4}"/>
     <hyperlink ref="D22" r:id="rId22" xr:uid="{D4EB6495-FA27-4B73-AB8B-5B3E06FFE9C8}"/>
     <hyperlink ref="E22" r:id="rId23" xr:uid="{D3A232F3-C90E-4D51-9938-D72C5F01A964}"/>
-    <hyperlink ref="D17" r:id="rId24" xr:uid="{11FD1766-77B2-47F7-850E-B005EFD32C40}"/>
+    <hyperlink ref="F17" r:id="rId24" xr:uid="{11FD1766-77B2-47F7-850E-B005EFD32C40}"/>
     <hyperlink ref="D15" r:id="rId25" xr:uid="{F86CC2DC-39C9-4E72-A273-787D9F8D347D}"/>
     <hyperlink ref="E15" r:id="rId26" xr:uid="{E51EAA81-F07E-42A2-A5E2-FEE8E2913FE6}"/>
     <hyperlink ref="F15" r:id="rId27" xr:uid="{CE2EF629-7822-4888-8577-0CD420F00F13}"/>
@@ -1735,6 +2133,63 @@
     <hyperlink ref="D26" r:id="rId57" xr:uid="{54BB9AC3-E9CA-4ECD-9707-8D2DFDB572FD}"/>
     <hyperlink ref="E26" r:id="rId58" xr:uid="{A57E1112-624F-49C8-B81A-7AC5833911BD}"/>
     <hyperlink ref="H6" r:id="rId59" xr:uid="{CFFBA7AD-436F-4F30-A3AE-6738331344F4}"/>
+    <hyperlink ref="E10" r:id="rId60" xr:uid="{54A99D3D-6820-4798-A660-2869B8B2C96C}"/>
+    <hyperlink ref="F10" r:id="rId61" xr:uid="{9DCFEDCA-56F5-41B1-B39B-F07B1DA18CA2}"/>
+    <hyperlink ref="G10" r:id="rId62" xr:uid="{70F3C349-DDD7-47F7-B657-4E799B2E830D}"/>
+    <hyperlink ref="D18" r:id="rId63" xr:uid="{237D5F2F-2D89-4A6B-BAF3-5576A361FB19}"/>
+    <hyperlink ref="E18" r:id="rId64" xr:uid="{4502794E-6C96-4813-BD78-EC37CA95204C}"/>
+    <hyperlink ref="D19" r:id="rId65" xr:uid="{5E83BA28-08DE-403E-B92C-9CE46536A560}"/>
+    <hyperlink ref="E19" r:id="rId66" xr:uid="{B5D9300B-00B7-4E45-8622-CB1FE73F7187}"/>
+    <hyperlink ref="D20" r:id="rId67" xr:uid="{A5ADD0A5-D8EE-44E8-B992-07065C91913F}"/>
+    <hyperlink ref="E20" r:id="rId68" xr:uid="{379F93C2-84BC-4E67-80F5-10AEEBAEEF77}"/>
+    <hyperlink ref="F20" r:id="rId69" xr:uid="{3F542749-D92C-404C-8AE7-88A5934900E0}"/>
+    <hyperlink ref="G20" r:id="rId70" xr:uid="{FEDA8BAD-96C4-43B1-8FDF-30493401043B}"/>
+    <hyperlink ref="D27" r:id="rId71" xr:uid="{3DDBEC28-C3F2-41AA-BD9E-819C86ECC046}"/>
+    <hyperlink ref="E27" r:id="rId72" xr:uid="{DE6E6C34-9867-4C84-8A36-0665B75D9ED4}"/>
+    <hyperlink ref="D28" r:id="rId73" xr:uid="{4BC72955-1D99-48D6-83E1-D10F93D289B5}"/>
+    <hyperlink ref="E28" r:id="rId74" xr:uid="{7513ADF0-3DBC-4A52-AF82-983F9A7D376C}"/>
+    <hyperlink ref="F28" r:id="rId75" xr:uid="{366AC02C-4961-480C-B137-0C1D93975CF6}"/>
+    <hyperlink ref="G28" r:id="rId76" xr:uid="{0A0F2AFA-98E8-4FD3-B7C1-6AAEB57CCE8A}"/>
+    <hyperlink ref="D31" r:id="rId77" xr:uid="{1603A9C8-29F0-4B00-A5C5-64CD316F5B0D}"/>
+    <hyperlink ref="E31" r:id="rId78" xr:uid="{5661DB8D-31C9-4884-982D-E3581728367E}"/>
+    <hyperlink ref="F31" r:id="rId79" xr:uid="{5A915D31-BE10-47FC-9255-EBBA5BF40FA8}"/>
+    <hyperlink ref="D32" r:id="rId80" xr:uid="{D408B9A1-8D5D-46F6-8D21-2C63D906C471}"/>
+    <hyperlink ref="G9" r:id="rId81" xr:uid="{A9E1634B-74C0-435C-8F16-3146FFD91FA1}"/>
+    <hyperlink ref="D30" r:id="rId82" xr:uid="{5930D7E7-BCC0-44E4-BD0C-94B51F45F3BB}"/>
+    <hyperlink ref="D33" r:id="rId83" xr:uid="{C8ABF1A0-772C-49C2-88E1-BCC2631B24A7}"/>
+    <hyperlink ref="D29" r:id="rId84" xr:uid="{B5AF0C59-759F-4DF0-A780-255242492C0A}"/>
+    <hyperlink ref="E29" r:id="rId85" xr:uid="{FA984ADD-80AA-4654-914C-E0AB41EBB92B}"/>
+    <hyperlink ref="F29" r:id="rId86" xr:uid="{7A800732-85EB-437D-9ECB-CED76AE63133}"/>
+    <hyperlink ref="G29" r:id="rId87" xr:uid="{083A3DD9-0F2C-4BA0-8936-F0077E8647C1}"/>
+    <hyperlink ref="E33" r:id="rId88" xr:uid="{9321F4AB-5858-4E82-ADBD-EF3EE5F22777}"/>
+    <hyperlink ref="F33" r:id="rId89" xr:uid="{11F7A806-3E94-409E-B574-C6D3BDD450E4}"/>
+    <hyperlink ref="D34" r:id="rId90" xr:uid="{6E579CCF-6A81-409C-B461-DB42B2833B8C}"/>
+    <hyperlink ref="E34" r:id="rId91" xr:uid="{0A59AF92-94BD-4461-9DCC-7C188FD68002}"/>
+    <hyperlink ref="F34" r:id="rId92" xr:uid="{871422AE-9667-4C26-B98B-7A9D679A190B}"/>
+    <hyperlink ref="D35" r:id="rId93" xr:uid="{A74B80D9-2A97-4C2A-8182-41A1C2CE2E7C}"/>
+    <hyperlink ref="E35" r:id="rId94" xr:uid="{2127F92A-7C5A-463D-BC05-2EC0B8C487DF}"/>
+    <hyperlink ref="F35" r:id="rId95" xr:uid="{30532C91-E087-4FD5-AEB2-BBBC349F2ABA}"/>
+    <hyperlink ref="G35" r:id="rId96" xr:uid="{5B2B21D8-7A89-4DAF-9475-E79B325ACD03}"/>
+    <hyperlink ref="D25" r:id="rId97" xr:uid="{8DE96E4A-B381-4B34-BF85-9488BA3643B1}"/>
+    <hyperlink ref="E25" r:id="rId98" xr:uid="{94F105E6-D79A-4F8E-8D3C-9AA6C856D315}"/>
+    <hyperlink ref="F25" r:id="rId99" xr:uid="{20F82753-0816-47DA-98BE-C211058B2C4A}"/>
+    <hyperlink ref="G25" r:id="rId100" xr:uid="{6F5CF595-865C-47F6-9B2E-3E929723E162}"/>
+    <hyperlink ref="H25" r:id="rId101" xr:uid="{9F1F544D-C577-477D-BE1E-6333A0B75DA3}"/>
+    <hyperlink ref="I25" r:id="rId102" xr:uid="{266E4118-2B87-41B4-9F7A-E5658194BFCF}"/>
+    <hyperlink ref="J25" r:id="rId103" xr:uid="{A0E517A5-F13E-48AE-AC59-70497E9CE946}"/>
+    <hyperlink ref="D21" r:id="rId104" xr:uid="{4E4B9380-B918-4A1E-B0E3-B554A0EAC0B3}"/>
+    <hyperlink ref="E21" r:id="rId105" xr:uid="{93ACEAB9-624E-4ABE-A0A3-E79682A977BA}"/>
+    <hyperlink ref="F19" r:id="rId106" xr:uid="{5C6B886A-CF00-46D7-BB02-C2861EC3CB4C}"/>
+    <hyperlink ref="D17" r:id="rId107" xr:uid="{088BE708-ED4E-4644-A075-E638754BE5D4}"/>
+    <hyperlink ref="E17" r:id="rId108" xr:uid="{380CE7EA-2701-41FB-A039-B979EE89D34E}"/>
+    <hyperlink ref="D8" r:id="rId109" xr:uid="{E9F7DA6A-A510-49B2-B500-957A04655408}"/>
+    <hyperlink ref="E8" r:id="rId110" xr:uid="{1B156C01-CEBD-4B0C-A4BA-1FD2B160AFEB}"/>
+    <hyperlink ref="F8" r:id="rId111" xr:uid="{4A212F06-5C06-4218-8172-8BD45F60FDE7}"/>
+    <hyperlink ref="D16" r:id="rId112" xr:uid="{DFFCD790-3CA0-4936-9E92-35F5DC10DC19}"/>
+    <hyperlink ref="E16" r:id="rId113" xr:uid="{FDFB5108-A288-4889-B486-F726903AA969}"/>
+    <hyperlink ref="F16" r:id="rId114" xr:uid="{86A7C13F-9F28-4D9C-A119-A09566DEE9B2}"/>
+    <hyperlink ref="G34" r:id="rId115" xr:uid="{663EC437-AF4D-4FEC-831F-1BCF6C52C269}"/>
+    <hyperlink ref="H34" r:id="rId116" xr:uid="{09C18DD8-E82B-47C8-81C7-57B9335E24CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
